--- a/Accounts-Schedules/تدريب طلبات 15-6.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 15-6.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$H$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="132">
   <si>
     <t>Below is the list of trainees scheduled for the Induction at Talabat on Sunday, June 15th, from 10 AM to 5 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -276,7 +276,28 @@
     <t>كارفور العبور</t>
   </si>
   <si>
-    <t>من 10 ص الى 7 م</t>
+    <t>Hader Fathy</t>
+  </si>
+  <si>
+    <t>الجراج</t>
+  </si>
+  <si>
+    <t>Sara Mustafa Rasheed Ali</t>
+  </si>
+  <si>
+    <t>مدخل معصرة الاتوستراد</t>
+  </si>
+  <si>
+    <t>Mostafa Fathallah Ibrahim</t>
+  </si>
+  <si>
+    <t>الطالبية</t>
+  </si>
+  <si>
+    <t>الاحد من 10 ص ل 5 م و الاثنين من 10 ص ل 7 م</t>
+  </si>
+  <si>
+    <t>Talabat</t>
   </si>
   <si>
     <t>Start</t>
@@ -297,10 +318,115 @@
     <t>Trainning</t>
   </si>
   <si>
+    <t>يوسف محمد نهاد</t>
+  </si>
+  <si>
+    <t>محمد البليسي</t>
+  </si>
+  <si>
+    <t>محمد الحسيني</t>
+  </si>
+  <si>
+    <t>باسنت صابر</t>
+  </si>
+  <si>
+    <t>بافلي أسامة</t>
+  </si>
+  <si>
+    <t>أحمد صالح كمال علي</t>
+  </si>
+  <si>
+    <t>هدير فتحي</t>
+  </si>
+  <si>
+    <t>محمد رمضان شعبان السباعى</t>
+  </si>
+  <si>
     <t>العبور</t>
   </si>
   <si>
+    <t>مصطفى طارق</t>
+  </si>
+  <si>
+    <t>يوسف أشرف</t>
+  </si>
+  <si>
+    <t>سارة أحمد عبد الفتاح</t>
+  </si>
+  <si>
+    <t>الفردوس</t>
+  </si>
+  <si>
+    <t>أحمد محمد عبد الرحمن محمد</t>
+  </si>
+  <si>
+    <t>بسنت هاني الجندي</t>
+  </si>
+  <si>
+    <t>عمر محمود</t>
+  </si>
+  <si>
+    <t>سارة مصطفى رشيد علي</t>
+  </si>
+  <si>
+    <t>احمد محسن</t>
+  </si>
+  <si>
     <t>دائري</t>
+  </si>
+  <si>
+    <t>أحمد زعبوط</t>
+  </si>
+  <si>
+    <t>كيرلس سمير</t>
+  </si>
+  <si>
+    <t>ميشيل يوسف</t>
+  </si>
+  <si>
+    <t>زياد عبد الحميد</t>
+  </si>
+  <si>
+    <t>سارة الشيخ</t>
+  </si>
+  <si>
+    <t>ابراهيم اسامه</t>
+  </si>
+  <si>
+    <t>هاجر عادل</t>
+  </si>
+  <si>
+    <t>غادة القاضي</t>
+  </si>
+  <si>
+    <t>مصطفى فتح الله ابراهيم</t>
+  </si>
+  <si>
+    <t>طالبية</t>
+  </si>
+  <si>
+    <t>محمد مرعي</t>
+  </si>
+  <si>
+    <t>عمر عماد الدين حسن</t>
+  </si>
+  <si>
+    <t>أسامة فتحي</t>
+  </si>
+  <si>
+    <t>منة هشام</t>
+  </si>
+  <si>
+    <t>شادن ياسر محمود</t>
+  </si>
+  <si>
+    <t>رامز طارق رشاد</t>
+  </si>
+  <si>
+    <t>أحمد عبد العظيم</t>
+  </si>
+  <si>
+    <t>عبير إسماعيل</t>
   </si>
 </sst>
 </file>
@@ -480,7 +606,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +1025,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,16 +1049,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -935,89 +1067,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1162,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1047,6 +1182,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1581,1014 +1752,1101 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E70"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.9090909090909" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.9090909090909" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.0909090909091" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1636363636364" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.9545454545455" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="4"/>
+    <col min="1" max="1" width="26.9090909090909" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.9090909090909" style="5" customWidth="1"/>
+    <col min="3" max="3" width="33.0909090909091" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1636363636364" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.9545454545455" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.72727272727273" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.25"/>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>1155313770</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>1158931963</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>1020746539</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>1111476774</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>1069027563</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>1093159095</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>1117222800</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>1221459041</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>1273649119</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <v>1156347057</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>1141870007</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>1020201082</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>1200605228</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>1225114253</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>1200709405</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>1158665484</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>1062050468</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>1017362063</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>1012310639</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <v>1001661753</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="10">
         <v>1553260958</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>1013091348</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <v>1023278502</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>1030947913</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="10">
         <v>1129654772</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="10">
         <v>1115323943</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>1098881807</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>1150177584</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" ht="15.25" spans="1:5">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>1555669434</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>1155313770</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>1158931963</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>1020746539</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>1111476774</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>1069027563</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>1093159095</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>1117222800</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>1221459041</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>1273649119</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>1156347057</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>1141870007</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>1020201082</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>1200605228</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>1225114253</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>1200709405</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>1158665484</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>1062050468</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="5">
         <v>1017362063</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="5">
         <v>1012310639</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="5">
         <v>1001661753</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="5">
         <v>1553260958</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="5">
         <v>1013091348</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="5">
         <v>1023278502</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="5">
         <v>1030947913</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="5">
         <v>1129654772</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="5">
         <v>1115323943</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="5">
         <v>1098881807</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="5">
         <v>1150177584</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="5">
         <v>1555669434</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="5" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="72" ht="15.25"/>
+    <row r="73" ht="15.25" spans="1:5">
+      <c r="A73" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" ht="15.25" spans="1:5">
+      <c r="A74" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="15">
+        <v>1064610575</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" ht="15.25" spans="1:5">
+      <c r="A75" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="17">
+        <v>1221971148</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" ht="15.25"/>
+    <row r="77" ht="15.25" spans="1:5">
+      <c r="A77" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" ht="15.25" spans="1:5">
+      <c r="A78" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="22">
+        <v>1100127117</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2600,10 +2858,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="A4:G32"/>
+      <selection activeCell="G4" sqref="A4:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2619,23 +2877,26 @@
     <col min="11" max="11" width="17.7636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5">
+    <row r="1" spans="5:7">
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -2644,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2658,10 +2919,10 @@
         <v>1200605228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>43</v>
@@ -2684,10 +2945,10 @@
         <v>1225114253</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>43</v>
@@ -2710,10 +2971,10 @@
         <v>1553260958</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>43</v>
@@ -2736,10 +2997,10 @@
         <v>1111476774</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -2762,10 +3023,10 @@
         <v>1221459041</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>31</v>
@@ -2788,10 +3049,10 @@
         <v>1115323943</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>31</v>
@@ -2811,22 +3072,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C10" s="2">
-        <v>1555669434</v>
+        <v>1064610575</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2837,22 +3098,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C11" s="2">
-        <v>1156347057</v>
+        <v>1555669434</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2863,22 +3124,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C12" s="2">
-        <v>1098881807</v>
+        <v>1156347057</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2892,10 +3153,10 @@
         <v>1013091348</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>67</v>
@@ -2915,22 +3176,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C14" s="2">
-        <v>1129654772</v>
+        <v>1098881807</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2941,22 +3202,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C15" s="2">
-        <v>1062050468</v>
+        <v>1129654772</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2967,22 +3228,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C16" s="2">
-        <v>1158665484</v>
+        <v>1062050468</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2993,13 +3254,13 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C17" s="2">
-        <v>1023278502</v>
+        <v>1158665484</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>50</v>
@@ -3019,22 +3280,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C18" s="2">
-        <v>1273649119</v>
+        <v>1023278502</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3045,22 +3306,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C19" s="2">
-        <v>1200709405</v>
+        <v>1221971148</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3071,16 +3332,16 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C20" s="2">
-        <v>1017362063</v>
+        <v>1273649119</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>60</v>
@@ -3097,16 +3358,16 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C21" s="2">
-        <v>1012310639</v>
+        <v>1200709405</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>60</v>
@@ -3123,22 +3384,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C22" s="2">
-        <v>1155313770</v>
+        <v>1017362063</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3149,22 +3410,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C23" s="2">
-        <v>1069027563</v>
+        <v>1012310639</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3174,23 +3435,23 @@
       <c r="B24" s="3">
         <v>0.791666666666667</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>24</v>
+      <c r="C24" s="2">
+        <v>1155313770</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3201,22 +3462,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C25" s="2">
-        <v>1158931963</v>
+        <v>1069027563</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3226,23 +3487,23 @@
       <c r="B26" s="3">
         <v>0.791666666666667</v>
       </c>
-      <c r="C26" s="2">
-        <v>1141870007</v>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3253,22 +3514,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C27" s="2">
-        <v>1020746539</v>
+        <v>1158931963</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3279,22 +3540,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C28" s="2">
-        <v>1020201082</v>
+        <v>1141870007</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3304,23 +3565,23 @@
       <c r="B29" s="3">
         <v>0.791666666666667</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
+      <c r="C29" s="4">
+        <v>1100127117</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3331,22 +3592,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C30" s="2">
-        <v>1001661753</v>
+        <v>1020746539</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3357,22 +3618,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C31" s="2">
-        <v>1030947913</v>
+        <v>1020201082</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3382,23 +3643,23 @@
       <c r="B32" s="3">
         <v>0.791666666666667</v>
       </c>
-      <c r="C32" s="2">
-        <v>1150177584</v>
+      <c r="C32" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3409,18 +3670,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C33" s="2">
-        <v>1093159095</v>
+        <v>1001661753</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3431,22 +3696,99 @@
         <v>0.791666666666667</v>
       </c>
       <c r="C34" s="2">
+        <v>1030947913</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1150177584</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1093159095</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C37" s="2">
         <v>1117222800</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H34" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H37" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A4:H37">
+      <sortCondition ref="F3"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/تدريب طلبات 15-6.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 15-6.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$H$37</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="194">
   <si>
     <t>Below is the list of trainees scheduled for the Induction at Talabat on Sunday, June 15th, from 10 AM to 5 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -427,21 +428,244 @@
   </si>
   <si>
     <t>عبير إسماعيل</t>
+  </si>
+  <si>
+    <t>start from 22 of june</t>
+  </si>
+  <si>
+    <t>اسراء راشاد</t>
+  </si>
+  <si>
+    <t>كارفور المقطم</t>
+  </si>
+  <si>
+    <t>احمد سلامة</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>Omar Mahmoud Serag</t>
+  </si>
+  <si>
+    <t>Mostafa Fathallah Ibrahim Ahmed</t>
+  </si>
+  <si>
+    <t>اميرة السيد محمود</t>
+  </si>
+  <si>
+    <t>Amir Elsayed Mahmoud Elaiary</t>
+  </si>
+  <si>
+    <t>كريم محمد فوزي محمد</t>
+  </si>
+  <si>
+    <t>Kareem Mohamed Fawzy Mohamed</t>
+  </si>
+  <si>
+    <t>TWWID</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Monday, June 16</t>
+  </si>
+  <si>
+    <t>Tuesday, June 17</t>
+  </si>
+  <si>
+    <t>Wednesday, June 18</t>
+  </si>
+  <si>
+    <t>Thursday, June 19</t>
+  </si>
+  <si>
+    <t>Friday, June 20</t>
+  </si>
+  <si>
+    <t>Saturday, June 21</t>
+  </si>
+  <si>
+    <t>Sunday, June 22</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Youssef Fouad</t>
+  </si>
+  <si>
+    <t>5th Settlement</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Noureldin ibrahim</t>
+  </si>
+  <si>
+    <t>1146697451-1070819036</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Abdullah</t>
+  </si>
+  <si>
+    <t>Momen Medhat</t>
+  </si>
+  <si>
+    <t>Ahmed Abdelaziz</t>
+  </si>
+  <si>
+    <t>Abdelrhman khaled darwish</t>
+  </si>
+  <si>
+    <t>Eman Adel</t>
+  </si>
+  <si>
+    <t>Marina Emad</t>
+  </si>
+  <si>
+    <t>Muhammed Sayed Tahaa</t>
+  </si>
+  <si>
+    <t>Omer Abdo</t>
+  </si>
+  <si>
+    <t>1155655266 / 1032140144</t>
+  </si>
+  <si>
+    <t>Mohamed Sherif</t>
+  </si>
+  <si>
+    <t>Abd Al Rahman Mohamed Ashour</t>
+  </si>
+  <si>
+    <t>Omar Ahmed Mohamed Abady</t>
+  </si>
+  <si>
+    <t>Shady Adel</t>
+  </si>
+  <si>
+    <t>Yahia Ahmed Mohamed Teleb</t>
+  </si>
+  <si>
+    <t>Ahmed Elkholy</t>
+  </si>
+  <si>
+    <t>Yaseen Ashraf</t>
+  </si>
+  <si>
+    <t>Mahmoud Zaki</t>
+  </si>
+  <si>
+    <t>Shady Mohamed</t>
+  </si>
+  <si>
+    <t>Mostafa Mahmoud</t>
+  </si>
+  <si>
+    <t>Sherif Elbehairy</t>
+  </si>
+  <si>
+    <t>Mostafa El-Garnosy</t>
+  </si>
+  <si>
+    <t>Mahmoud Metwally</t>
+  </si>
+  <si>
+    <t>Asmaa Ayman</t>
+  </si>
+  <si>
+    <t>Toqa Eldesoky</t>
+  </si>
+  <si>
+    <t>Sarah Alzuhairi</t>
+  </si>
+  <si>
+    <t>Mohamed Tarek</t>
+  </si>
+  <si>
+    <t>Belal Gamal</t>
+  </si>
+  <si>
+    <t>Yara Emad</t>
+  </si>
+  <si>
+    <t>Fatma Hamdy</t>
+  </si>
+  <si>
+    <t>Moamen Gamal Mohamed Mahmoud</t>
+  </si>
+  <si>
+    <t>1123575377-1004346888</t>
+  </si>
+  <si>
+    <t>نشوى مصطفى</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -606,12 +830,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -621,7 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,12 +930,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +1060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -836,6 +1078,76 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1019,140 +1331,179 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,61 +1513,58 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1760,1092 +2108,1092 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.9090909090909" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.9090909090909" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.0909090909091" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1636363636364" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.9545454545455" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="5"/>
+    <col min="1" max="1" width="26.9090909090909" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.9090909090909" style="22" customWidth="1"/>
+    <col min="3" max="3" width="33.0909090909091" style="22" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1636363636364" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.9545454545455" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="8.72727272727273" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.25"/>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="27">
         <v>1155313770</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="27">
         <v>1158931963</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="27">
         <v>1020746539</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="27">
         <v>1111476774</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="27">
         <v>1069027563</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="27">
         <v>1093159095</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="27">
         <v>1117222800</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="27">
         <v>1221459041</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="27">
         <v>1273649119</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="27">
         <v>1156347057</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="27">
         <v>1141870007</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="27">
         <v>1020201082</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="27">
         <v>1200605228</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="27">
         <v>1225114253</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="27">
         <v>1200709405</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="27">
         <v>1158665484</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="27">
         <v>1062050468</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="27">
         <v>1017362063</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="27" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="27">
         <v>1012310639</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="27" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="27">
         <v>1001661753</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="27">
         <v>1553260958</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="27">
         <v>1013091348</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="27">
         <v>1023278502</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="27">
         <v>1030947913</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="27">
         <v>1129654772</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="27" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="27">
         <v>1115323943</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="27">
         <v>1098881807</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="27">
         <v>1150177584</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="27" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" ht="15.25" spans="1:5">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="27">
         <v>1555669434</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="27" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="22">
         <v>1155313770</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="22">
         <v>1158931963</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="22">
         <v>1020746539</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="22">
         <v>1111476774</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="22">
         <v>1069027563</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="22">
         <v>1093159095</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="22">
         <v>1117222800</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="22">
         <v>1221459041</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="22">
         <v>1273649119</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="22">
         <v>1156347057</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="22">
         <v>1141870007</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="22">
         <v>1020201082</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="22">
         <v>1200605228</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="22">
         <v>1225114253</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="22">
         <v>1200709405</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="22">
         <v>1158665484</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="22">
         <v>1062050468</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="22">
         <v>1017362063</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="22">
         <v>1012310639</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="22">
         <v>1001661753</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="22">
         <v>1553260958</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="22">
         <v>1013091348</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="22">
         <v>1023278502</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="22">
         <v>1030947913</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="22">
         <v>1129654772</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="22">
         <v>1115323943</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="22">
         <v>1098881807</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="22">
         <v>1150177584</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="22">
         <v>1555669434</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="72" ht="15.25"/>
     <row r="73" ht="15.25" spans="1:5">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" ht="15.25" spans="1:5">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="32">
         <v>1064610575</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" ht="15.25" spans="1:5">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="34">
         <v>1221971148</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="32" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" ht="15.25"/>
     <row r="77" ht="15.25" spans="1:5">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" ht="15.25" spans="1:5">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="22">
+      <c r="B78" s="32">
         <v>1100127117</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="32" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2858,76 +3206,76 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A4:G35"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A71" sqref="A45:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="10.7272727272727" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7272727272727" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.3636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.8545454545455" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7636363636364" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.7272727272727" style="14" customWidth="1"/>
+    <col min="3" max="3" width="27.7272727272727" style="14" customWidth="1"/>
+    <col min="4" max="4" width="25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="33.3636363636364" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.8545454545455" style="14" customWidth="1"/>
+    <col min="7" max="7" width="17.7636363636364" style="14" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="10" max="10" width="17.8545454545455" customWidth="1"/>
     <col min="11" max="11" width="17.7636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:7">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B4" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="15">
         <v>1200605228</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H4" t="s">
@@ -2935,25 +3283,25 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B5" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="15">
         <v>1225114253</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
@@ -2961,25 +3309,25 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B6" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="15">
         <v>1553260958</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="15" t="s">
         <v>65</v>
       </c>
       <c r="H6" t="s">
@@ -2987,25 +3335,25 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B7" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="15">
         <v>1111476774</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
@@ -3013,25 +3361,25 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B8" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="15">
         <v>1221459041</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H8" t="s">
@@ -3039,25 +3387,25 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B9" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="15">
         <v>1115323943</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H9" t="s">
@@ -3065,25 +3413,25 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B10" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="15">
         <v>1064610575</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="15" t="s">
         <v>82</v>
       </c>
       <c r="H10" t="s">
@@ -3091,25 +3439,25 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B11" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="15">
         <v>1555669434</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="15" t="s">
         <v>80</v>
       </c>
       <c r="H11" t="s">
@@ -3117,25 +3465,25 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B12" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="15">
         <v>1156347057</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H12" t="s">
@@ -3143,25 +3491,25 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B13" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="15">
         <v>1013091348</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="15" t="s">
         <v>68</v>
       </c>
       <c r="H13" t="s">
@@ -3169,25 +3517,25 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B14" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="15">
         <v>1098881807</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="15" t="s">
         <v>107</v>
       </c>
       <c r="H14" t="s">
@@ -3195,25 +3543,25 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B15" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="15">
         <v>1129654772</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="15" t="s">
         <v>72</v>
       </c>
       <c r="H15" t="s">
@@ -3221,25 +3569,25 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B16" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="15">
         <v>1062050468</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="15" t="s">
         <v>58</v>
       </c>
       <c r="H16" t="s">
@@ -3247,25 +3595,25 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B17" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="15">
         <v>1158665484</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H17" t="s">
@@ -3273,25 +3621,25 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B18" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="15">
         <v>1023278502</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H18" t="s">
@@ -3299,25 +3647,25 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B19" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="15">
         <v>1221971148</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="15" t="s">
         <v>84</v>
       </c>
       <c r="H19" t="s">
@@ -3325,25 +3673,25 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="A20" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B20" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="15">
         <v>1273649119</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H20" t="s">
@@ -3351,25 +3699,25 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="A21" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B21" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="15">
         <v>1200709405</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H21" t="s">
@@ -3377,25 +3725,25 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="A22" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B22" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="15">
         <v>1017362063</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H22" t="s">
@@ -3403,25 +3751,25 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="A23" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B23" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="15">
         <v>1012310639</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="15" t="s">
         <v>48</v>
       </c>
       <c r="H23" t="s">
@@ -3429,25 +3777,25 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B24" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="15">
         <v>1155313770</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H24" t="s">
@@ -3455,25 +3803,25 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="A25" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B25" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="15">
         <v>1069027563</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H25" t="s">
@@ -3481,25 +3829,25 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="A26" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B26" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H26" t="s">
@@ -3507,25 +3855,25 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="A27" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B27" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="15">
         <v>1158931963</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
@@ -3533,25 +3881,25 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="A28" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B28" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="15">
         <v>1141870007</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="15" t="s">
         <v>40</v>
       </c>
       <c r="H28" t="s">
@@ -3559,25 +3907,25 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B29" s="3">
+      <c r="A29" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B29" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="15">
         <v>1100127117</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="15" t="s">
         <v>123</v>
       </c>
       <c r="H29" t="s">
@@ -3585,25 +3933,25 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="A30" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B30" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="15">
         <v>1020746539</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
@@ -3611,25 +3959,25 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="A31" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B31" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="15">
         <v>1020201082</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H31" t="s">
@@ -3637,25 +3985,25 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="A32" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B32" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H32" t="s">
@@ -3663,25 +4011,25 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="A33" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B33" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="15">
         <v>1001661753</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H33" t="s">
@@ -3689,25 +4037,25 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="A34" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B34" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="15">
         <v>1030947913</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H34" t="s">
@@ -3715,25 +4063,25 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="A35" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B35" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="15">
         <v>1150177584</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="15" t="s">
         <v>78</v>
       </c>
       <c r="H35" t="s">
@@ -3741,52 +4089,672 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B36" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="15">
         <v>1093159095</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
       <c r="H36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="A37" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B37" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="15">
         <v>1117222800</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
       <c r="H37" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B40" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1141828488</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="20">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B41" s="20">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1222117804</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="21">
+        <v>10334770</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="14">
+        <v>1111476774</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="21">
+        <v>10334711</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="21">
+        <v>10334699</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1093159095</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="21">
+        <v>10334705</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="14">
+        <v>1117222800</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48"/>
+    </row>
+    <row r="49" ht="14" customHeight="1" spans="1:7">
+      <c r="A49" s="21">
+        <v>10334704</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="14">
+        <v>1020201082</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="21">
+        <v>10334708</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="14">
+        <v>1200605228</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="21">
+        <v>10334702</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1225114253</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="21">
+        <v>10334726</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="14">
+        <v>1012310639</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="21">
+        <v>10334707</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="14">
+        <v>1062050468</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="21">
+        <v>10334710</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1273649119</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="21">
+        <v>10334714</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="14">
+        <v>1013091348</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="21">
+        <v>10334712</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1158665484</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="21">
+        <v>10334788</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="14">
+        <v>1129654772</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="21">
+        <v>10334700</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="14">
+        <v>1098881807</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="21">
+        <v>10334738</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="14">
+        <v>1150177584</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="21">
+        <v>10334701</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="14">
+        <v>1158931963</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="21">
+        <v>10334709</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="14">
+        <v>1141870007</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="21">
+        <v>10334733</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="14">
+        <v>1069027563</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="21">
+        <v>10334703</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="14">
+        <v>1553260958</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="21">
+        <v>10334713</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="14">
+        <v>1221459041</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="21">
+        <v>10334715</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="14">
+        <v>1030947913</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="21">
+        <v>10334766</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="21">
+        <v>10334768</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="14">
+        <v>1064610575</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="21">
+        <v>10334736</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="14">
+        <v>1221971148</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="21">
+        <v>10334794</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="14">
+        <v>1100127117</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="21">
+        <v>10334686</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="21">
+        <v>10334697</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H37" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A4:H37">
+    <sortState ref="A3:H37">
       <sortCondition ref="F3"/>
     </sortState>
     <extLst/>
@@ -3794,4 +4762,3280 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64:J64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.09090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.4545454545455" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5454545454545" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="17" width="9.45454545454546" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="6">
+        <v>10273655</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1220100184</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="6">
+        <v>10287526</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="6">
+        <v>10334426</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1070014549</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="6">
+        <v>10334497</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1123940404</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="6">
+        <v>10334495</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1140040830</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="7">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="6">
+        <v>10333951</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1063853315</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="6">
+        <v>10334018</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1004065451</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="6">
+        <v>10334023</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1278825213</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="6">
+        <v>10334032</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1062098602</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="6">
+        <v>10333953</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="6">
+        <v>10333976</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1021824170</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="6">
+        <v>10333964</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1115055059</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="6">
+        <v>10333956</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1021661613</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="6">
+        <v>10333952</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1015843833</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="6">
+        <v>10333947</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1117915599</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="6">
+        <v>10334025</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1143344843</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="6">
+        <v>10333965</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1068338443</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="6">
+        <v>10333966</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1027486316</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="6">
+        <v>10333938</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1000663107</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="6">
+        <v>10334027</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1158249339</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="6">
+        <v>10334031</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1068068182</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="6">
+        <v>10333974</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1065353669</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="6">
+        <v>10333973</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1065673340</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="6">
+        <v>10334057</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1064620013</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="6">
+        <v>10293907</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1125914954</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="6">
+        <v>10304876</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1094007876</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="6">
+        <v>10267962</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1018145481</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="6">
+        <v>10273571</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1154947311</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="6">
+        <v>10250874</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1142664771</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="6">
+        <v>10334770</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1111476774</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="6">
+        <v>10334711</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="6">
+        <v>10334699</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1093159095</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="6">
+        <v>10334705</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1117222800</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="6">
+        <v>10334704</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1020201082</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="6">
+        <v>10334708</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1200605228</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="6">
+        <v>10334702</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1225114253</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="6">
+        <v>10334726</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1200709405</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="6">
+        <v>10334707</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1062050468</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="6">
+        <v>10334710</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1017362063</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="6">
+        <v>10334714</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1013091348</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="6">
+        <v>10334712</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1023278502</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="6">
+        <v>10334788</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1129654772</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="6">
+        <v>10334700</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1098881807</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="6">
+        <v>10334738</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1150177584</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="6">
+        <v>10334701</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1158931963</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="6">
+        <v>10334709</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1141870007</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="6">
+        <v>10334733</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1069027563</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="6">
+        <v>10334703</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1553260958</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="6">
+        <v>10334713</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1221459041</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="6">
+        <v>10334715</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1030947913</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="6">
+        <v>10334766</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="6">
+        <v>10334768</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1064610575</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="6">
+        <v>10334736</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1221971148</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="6">
+        <v>10334794</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1100127117</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="6">
+        <v>10310365</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1204852813</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="6">
+        <v>10334668</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1067876527</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R58" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="6">
+        <v>10334686</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="6">
+        <v>10334697</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1093119853</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10">
+      <c r="E64" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="127">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="O1:P2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Accounts-Schedules/تدريب طلبات 15-6.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 15-6.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="195">
   <si>
     <t>Below is the list of trainees scheduled for the Induction at Talabat on Sunday, June 15th, from 10 AM to 5 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>1123575377-1004346888</t>
+  </si>
+  <si>
+    <t>No ID</t>
   </si>
   <si>
     <t>نشوى مصطفى</t>
@@ -620,13 +623,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1486,7 +1490,7 @@
     <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,7 +1526,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3208,8 +3212,8 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A71" sqref="A45:F71"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4767,10 +4771,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64:J64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64:K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -4779,7 +4783,8 @@
     <col min="2" max="2" width="32.2727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.4545454545455" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.5454545454545" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="17" width="9.45454545454546" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3636363636364" style="1" customWidth="1"/>
+    <col min="6" max="17" width="9.45454545454546" style="1" customWidth="1"/>
     <col min="18" max="18" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7885,7 +7890,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="5:10">
+    <row r="64" spans="5:11">
       <c r="E64" s="8">
         <v>0.416666666666667</v>
       </c>
@@ -7899,10 +7904,59 @@
         <v>193</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11">
+      <c r="E65" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F65" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1141828488</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11">
+      <c r="E66" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1222117804</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
